--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.791298</v>
+        <v>3.895302</v>
       </c>
       <c r="H2">
-        <v>14.373894</v>
+        <v>11.685906</v>
       </c>
       <c r="I2">
-        <v>0.2539858212527057</v>
+        <v>0.1607797697193069</v>
       </c>
       <c r="J2">
-        <v>0.2539858212527057</v>
+        <v>0.1607797697193069</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.938300333333333</v>
+        <v>1.836553</v>
       </c>
       <c r="N2">
-        <v>17.814901</v>
+        <v>5.509659</v>
       </c>
       <c r="O2">
-        <v>0.1393304991144193</v>
+        <v>0.08501638387171169</v>
       </c>
       <c r="P2">
-        <v>0.1393304991144193</v>
+        <v>0.08501638387171168</v>
       </c>
       <c r="Q2">
-        <v>28.45216651049934</v>
+        <v>7.153928574006</v>
       </c>
       <c r="R2">
-        <v>256.069498594494</v>
+        <v>64.38535716605399</v>
       </c>
       <c r="S2">
-        <v>0.03538797124312518</v>
+        <v>0.013668914621262</v>
       </c>
       <c r="T2">
-        <v>0.03538797124312518</v>
+        <v>0.013668914621262</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.791298</v>
+        <v>3.895302</v>
       </c>
       <c r="H3">
-        <v>14.373894</v>
+        <v>11.685906</v>
       </c>
       <c r="I3">
-        <v>0.2539858212527057</v>
+        <v>0.1607797697193069</v>
       </c>
       <c r="J3">
-        <v>0.2539858212527057</v>
+        <v>0.1607797697193069</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>32.480573</v>
       </c>
       <c r="O3">
-        <v>0.2540308502198431</v>
+        <v>0.5011890686049997</v>
       </c>
       <c r="P3">
-        <v>0.2540308502198431</v>
+        <v>0.5011890686049997</v>
       </c>
       <c r="Q3">
-        <v>51.87470148458467</v>
+        <v>42.173880322682</v>
       </c>
       <c r="R3">
-        <v>466.872313361262</v>
+        <v>379.564922904138</v>
       </c>
       <c r="S3">
-        <v>0.06452023411660991</v>
+        <v>0.08058106303614575</v>
       </c>
       <c r="T3">
-        <v>0.06452023411660991</v>
+        <v>0.08058106303614575</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.791298</v>
+        <v>3.895302</v>
       </c>
       <c r="H4">
-        <v>14.373894</v>
+        <v>11.685906</v>
       </c>
       <c r="I4">
-        <v>0.2539858212527057</v>
+        <v>0.1607797697193069</v>
       </c>
       <c r="J4">
-        <v>0.2539858212527057</v>
+        <v>0.1607797697193069</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.85508933333334</v>
+        <v>8.938931333333334</v>
       </c>
       <c r="N4">
-        <v>77.565268</v>
+        <v>26.816794</v>
       </c>
       <c r="O4">
-        <v>0.6066386506657375</v>
+        <v>0.4137945475232886</v>
       </c>
       <c r="P4">
-        <v>0.6066386506657376</v>
+        <v>0.4137945475232886</v>
       </c>
       <c r="Q4">
-        <v>123.8794378126213</v>
+        <v>34.819837100596</v>
       </c>
       <c r="R4">
-        <v>1114.914940313592</v>
+        <v>313.378533905364</v>
       </c>
       <c r="S4">
-        <v>0.1540776158929706</v>
+        <v>0.06652979206189914</v>
       </c>
       <c r="T4">
-        <v>0.1540776158929706</v>
+        <v>0.06652979206189913</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.844168999999999</v>
+        <v>9.844169000000001</v>
       </c>
       <c r="H5">
         <v>29.532507</v>
       </c>
       <c r="I5">
-        <v>0.5218375788805928</v>
+        <v>0.4063210567236994</v>
       </c>
       <c r="J5">
-        <v>0.5218375788805928</v>
+        <v>0.4063210567236994</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.938300333333333</v>
+        <v>1.836553</v>
       </c>
       <c r="N5">
-        <v>17.814901</v>
+        <v>5.509659</v>
       </c>
       <c r="O5">
-        <v>0.1393304991144193</v>
+        <v>0.08501638387171169</v>
       </c>
       <c r="P5">
-        <v>0.1393304991144193</v>
+        <v>0.08501638387171168</v>
       </c>
       <c r="Q5">
-        <v>58.45763205408966</v>
+        <v>18.079338109457</v>
       </c>
       <c r="R5">
-        <v>526.1186884868069</v>
+        <v>162.714042985113</v>
       </c>
       <c r="S5">
-        <v>0.07270789032209315</v>
+        <v>0.03454394693358157</v>
       </c>
       <c r="T5">
-        <v>0.07270789032209315</v>
+        <v>0.03454394693358157</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.844168999999999</v>
+        <v>9.844169000000001</v>
       </c>
       <c r="H6">
         <v>29.532507</v>
       </c>
       <c r="I6">
-        <v>0.5218375788805928</v>
+        <v>0.4063210567236994</v>
       </c>
       <c r="J6">
-        <v>0.5218375788805928</v>
+        <v>0.4063210567236994</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>32.480573</v>
       </c>
       <c r="O6">
-        <v>0.2540308502198431</v>
+        <v>0.5011890686049997</v>
       </c>
       <c r="P6">
-        <v>0.2540308502198431</v>
+        <v>0.5011890686049997</v>
       </c>
       <c r="Q6">
         <v>106.5814166096123</v>
       </c>
       <c r="R6">
-        <v>959.232749486511</v>
+        <v>959.2327494865111</v>
       </c>
       <c r="S6">
-        <v>0.1325628438397014</v>
+        <v>0.2036436719739501</v>
       </c>
       <c r="T6">
-        <v>0.1325628438397014</v>
+        <v>0.2036436719739502</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.844168999999999</v>
+        <v>9.844169000000001</v>
       </c>
       <c r="H7">
         <v>29.532507</v>
       </c>
       <c r="I7">
-        <v>0.5218375788805928</v>
+        <v>0.4063210567236994</v>
       </c>
       <c r="J7">
-        <v>0.5218375788805928</v>
+        <v>0.4063210567236994</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.85508933333334</v>
+        <v>8.938931333333334</v>
       </c>
       <c r="N7">
-        <v>77.565268</v>
+        <v>26.816794</v>
       </c>
       <c r="O7">
-        <v>0.6066386506657375</v>
+        <v>0.4137945475232886</v>
       </c>
       <c r="P7">
-        <v>0.6066386506657376</v>
+        <v>0.4137945475232886</v>
       </c>
       <c r="Q7">
-        <v>254.5218689074307</v>
+        <v>87.99635072472869</v>
       </c>
       <c r="R7">
-        <v>2290.696820166876</v>
+        <v>791.9671565225581</v>
       </c>
       <c r="S7">
-        <v>0.3165668447187982</v>
+        <v>0.1681334378161677</v>
       </c>
       <c r="T7">
-        <v>0.3165668447187983</v>
+        <v>0.1681334378161677</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.228964</v>
+        <v>10.488092</v>
       </c>
       <c r="H8">
-        <v>12.686892</v>
+        <v>31.464276</v>
       </c>
       <c r="I8">
-        <v>0.2241765998667015</v>
+        <v>0.4328991735569938</v>
       </c>
       <c r="J8">
-        <v>0.2241765998667015</v>
+        <v>0.4328991735569938</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.938300333333333</v>
+        <v>1.836553</v>
       </c>
       <c r="N8">
-        <v>17.814901</v>
+        <v>5.509659</v>
       </c>
       <c r="O8">
-        <v>0.1393304991144193</v>
+        <v>0.08501638387171169</v>
       </c>
       <c r="P8">
-        <v>0.1393304991144193</v>
+        <v>0.08501638387171168</v>
       </c>
       <c r="Q8">
-        <v>25.11285833085467</v>
+        <v>19.261936826876</v>
       </c>
       <c r="R8">
-        <v>226.015724977692</v>
+        <v>173.357431441884</v>
       </c>
       <c r="S8">
-        <v>0.031234637549201</v>
+        <v>0.03680352231686812</v>
       </c>
       <c r="T8">
-        <v>0.03123463754920099</v>
+        <v>0.03680352231686812</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.228964</v>
+        <v>10.488092</v>
       </c>
       <c r="H9">
-        <v>12.686892</v>
+        <v>31.464276</v>
       </c>
       <c r="I9">
-        <v>0.2241765998667015</v>
+        <v>0.4328991735569938</v>
       </c>
       <c r="J9">
-        <v>0.2241765998667015</v>
+        <v>0.4328991735569938</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>32.480573</v>
       </c>
       <c r="O9">
-        <v>0.2540308502198431</v>
+        <v>0.5011890686049997</v>
       </c>
       <c r="P9">
-        <v>0.2540308502198431</v>
+        <v>0.5011890686049997</v>
       </c>
       <c r="Q9">
-        <v>45.78639130545734</v>
+        <v>113.5530792789053</v>
       </c>
       <c r="R9">
-        <v>412.077521749116</v>
+        <v>1021.977713510148</v>
       </c>
       <c r="S9">
-        <v>0.05694777226353175</v>
+        <v>0.2169643335949038</v>
       </c>
       <c r="T9">
-        <v>0.05694777226353175</v>
+        <v>0.2169643335949038</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.228964</v>
+        <v>10.488092</v>
       </c>
       <c r="H10">
-        <v>12.686892</v>
+        <v>31.464276</v>
       </c>
       <c r="I10">
-        <v>0.2241765998667015</v>
+        <v>0.4328991735569938</v>
       </c>
       <c r="J10">
-        <v>0.2241765998667015</v>
+        <v>0.4328991735569938</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.85508933333334</v>
+        <v>8.938931333333334</v>
       </c>
       <c r="N10">
-        <v>77.565268</v>
+        <v>26.816794</v>
       </c>
       <c r="O10">
-        <v>0.6066386506657375</v>
+        <v>0.4137945475232886</v>
       </c>
       <c r="P10">
-        <v>0.6066386506657376</v>
+        <v>0.4137945475232886</v>
       </c>
       <c r="Q10">
-        <v>109.3402420074507</v>
+        <v>93.75233420568267</v>
       </c>
       <c r="R10">
-        <v>984.062178067056</v>
+        <v>843.7710078511441</v>
       </c>
       <c r="S10">
-        <v>0.1359941900539688</v>
+        <v>0.1791313176452218</v>
       </c>
       <c r="T10">
-        <v>0.1359941900539688</v>
+        <v>0.1791313176452218</v>
       </c>
     </row>
   </sheetData>
